--- a/study1/presentation_for_paper/study1_distribution_by_trait.xlsx
+++ b/study1/presentation_for_paper/study1_distribution_by_trait.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{153FF479-218A-42A4-9842-3DBD39149668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D1D37DA-ADE3-420C-A014-02CB87315D7B}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{153FF479-218A-42A4-9842-3DBD39149668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD7A2D3-74F1-4A2F-94D9-A9DE1228C6CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FF265762-7E5C-43D6-B5F5-05C24A17650A}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,13 +160,53 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -175,35 +215,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -213,53 +231,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,22 +308,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC7797D-A11D-1B13-16B2-FCF9E14C9B61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A4503D-807C-1C2A-11ED-C65E48A69E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -322,8 +346,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="279400" y="152400"/>
-          <a:ext cx="7848600" cy="1873250"/>
+          <a:off x="234950" y="304800"/>
+          <a:ext cx="7848600" cy="2101850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -343,6 +367,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C213E9F-BD98-4C7D-A7E3-F07CACEA80EF}">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="A2:J13"/>
+      <selection activeCell="J16" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -673,7 +701,7 @@
     <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.9140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="1" customWidth="1"/>
     <col min="6" max="9" width="15.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="0.58203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
@@ -681,247 +709,284 @@
   <sheetData>
     <row r="2" spans="2:9" ht="3" customHeight="1"/>
     <row r="3" spans="2:9">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
-        <v>312</v>
-      </c>
-      <c r="D5" s="2">
-        <v>312</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="7">
+        <v>312</v>
+      </c>
+      <c r="D5" s="13">
+        <v>312</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
         <v>305</v>
       </c>
-      <c r="G5" s="2">
-        <v>312</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="12">
+        <v>312</v>
+      </c>
+      <c r="H5" s="7">
         <f>F5-C5</f>
         <v>-7</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I12" si="0">G5-D5</f>
+      <c r="I5" s="12">
+        <f t="shared" ref="I5:I15" si="0">G5-D5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15">
-        <v>312</v>
-      </c>
-      <c r="D6" s="5">
-        <v>312</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="7">
+        <v>312</v>
+      </c>
+      <c r="D6" s="13">
+        <v>312</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>319</v>
       </c>
-      <c r="G6" s="5">
-        <v>312</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:H12" si="1">F6-C6</f>
+      <c r="G6" s="12">
+        <v>312</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H15" si="1">F6-C6</f>
         <v>7</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:9" ht="6" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14">
-        <v>312</v>
-      </c>
-      <c r="D7" s="2">
-        <v>312</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C8" s="7">
+        <v>312</v>
+      </c>
+      <c r="D8" s="13">
+        <v>312</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
         <v>571</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="12">
         <v>571</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="12">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15">
-        <v>312</v>
-      </c>
-      <c r="D8" s="5">
-        <v>312</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="C9" s="7">
+        <v>312</v>
+      </c>
+      <c r="D9" s="13">
+        <v>312</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <v>53</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="12">
         <v>53</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>-259</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I9" s="12">
         <f t="shared" si="0"/>
         <v>-259</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="2:9" ht="6" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
-        <v>312</v>
-      </c>
-      <c r="D9" s="2">
-        <v>312</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="C11" s="7">
+        <v>312</v>
+      </c>
+      <c r="D11" s="13">
+        <v>312</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
         <v>261</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G11" s="12">
         <v>322</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>-51</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15">
-        <v>312</v>
-      </c>
-      <c r="D10" s="5">
-        <v>312</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="C12" s="7">
+        <v>312</v>
+      </c>
+      <c r="D12" s="13">
+        <v>312</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>363</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G12" s="12">
         <v>302</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="2:9" ht="6" customHeight="1">
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14">
-        <v>312</v>
-      </c>
-      <c r="D11" s="2">
-        <v>312</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C14" s="7">
+        <v>312</v>
+      </c>
+      <c r="D14" s="13">
+        <v>312</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12">
         <v>97</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G14" s="12">
         <v>73</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>-215</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>-239</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="15">
-        <v>312</v>
-      </c>
-      <c r="D12" s="5">
-        <v>312</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="C15" s="8">
+        <v>312</v>
+      </c>
+      <c r="D15" s="17">
+        <v>312</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
         <v>527</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G15" s="3">
         <v>551</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="4" customHeight="1"/>
+    <row r="16" spans="2:9" ht="4" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
@@ -939,7 +1004,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
